--- a/biology/Zoologie/Dicranomyia/Dicranomyia.xlsx
+++ b/biology/Zoologie/Dicranomyia/Dicranomyia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicranomyia est un genre de mouches grues de la famille des Limoniidae. Les larves sont principalement aquatiques ou semi-aquatiques, avec une exception trouvée dans une seule espèce des îles hawaïennes qui a une larve mineuse de feuilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alexandriaria Garrett, 1922
@@ -566,7 +580,9 @@
           <t>Espèces par sous-genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sous-genre Alexandriaria Garrett, 1922
@@ -1645,6 +1661,42 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dicranomyia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dicranomyia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces par sous-genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>†Dicranomyia antennifera Nicolas Théobald 1937</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
